--- a/wrappers/DeviceCapabilities.xlsx
+++ b/wrappers/DeviceCapabilities.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="111">
   <si>
     <t>#Spokes Wrapper Device Capabilities List</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>HasMobCallerId</t>
+  </si>
+  <si>
+    <t>AA05</t>
   </si>
 </sst>
 </file>
@@ -714,9 +717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -868,7 +873,7 @@
         <v>107</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3914,6 +3919,35 @@
       </c>
       <c r="I111" s="4" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/wrappers/DeviceCapabilities.xlsx
+++ b/wrappers/DeviceCapabilities.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Perforce-New2013\plantronics\NPD\users\lcollins\Samples\wrappers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="133">
   <si>
     <t>#Spokes Wrapper Device Capabilities List</t>
   </si>
@@ -352,6 +357,72 @@
   </si>
   <si>
     <t>AA05</t>
+  </si>
+  <si>
+    <t>011E</t>
+  </si>
+  <si>
+    <t>011F</t>
+  </si>
+  <si>
+    <t>C032</t>
+  </si>
+  <si>
+    <t>C033</t>
+  </si>
+  <si>
+    <t>AF00</t>
+  </si>
+  <si>
+    <t>AF01</t>
+  </si>
+  <si>
+    <t>AF02</t>
+  </si>
+  <si>
+    <t>AE02</t>
+  </si>
+  <si>
+    <t>AE03</t>
+  </si>
+  <si>
+    <t>AEFF</t>
+  </si>
+  <si>
+    <t>C02F</t>
+  </si>
+  <si>
+    <t>C034</t>
+  </si>
+  <si>
+    <t>02ff</t>
+  </si>
+  <si>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>C435</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>cy</t>
+  </si>
+  <si>
+    <t>md</t>
+  </si>
+  <si>
+    <t>HasQDConnector</t>
   </si>
 </sst>
 </file>
@@ -410,12 +481,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,6 +498,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -473,7 +549,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,7 +584,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -717,11 +793,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -734,9 +808,10 @@
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +824,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -760,7 +835,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -788,8 +863,11 @@
       <c r="I3" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
@@ -817,8 +895,11 @@
       <c r="I4" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
@@ -846,8 +927,11 @@
       <c r="I5" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -875,8 +959,11 @@
       <c r="I6" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>89</v>
       </c>
@@ -904,8 +991,11 @@
       <c r="I7" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -933,8 +1023,11 @@
       <c r="I8" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -962,8 +1055,11 @@
       <c r="I9" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1087,11 @@
       <c r="I10" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>90</v>
       </c>
@@ -1020,8 +1119,11 @@
       <c r="I11" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>91</v>
       </c>
@@ -1049,8 +1151,11 @@
       <c r="I12" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>92</v>
       </c>
@@ -1078,8 +1183,11 @@
       <c r="I13" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>93</v>
       </c>
@@ -1107,8 +1215,11 @@
       <c r="I14" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>94</v>
       </c>
@@ -1136,8 +1247,11 @@
       <c r="I15" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>95</v>
       </c>
@@ -1165,8 +1279,11 @@
       <c r="I16" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>96</v>
       </c>
@@ -1194,8 +1311,11 @@
       <c r="I17" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>97</v>
       </c>
@@ -1223,8 +1343,11 @@
       <c r="I18" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>98</v>
       </c>
@@ -1252,8 +1375,11 @@
       <c r="I19" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>99</v>
       </c>
@@ -1281,8 +1407,11 @@
       <c r="I20" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>100</v>
       </c>
@@ -1310,8 +1439,11 @@
       <c r="I21" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>101</v>
       </c>
@@ -1339,8 +1471,11 @@
       <c r="I22" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>102</v>
       </c>
@@ -1368,8 +1503,11 @@
       <c r="I23" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1397,8 +1535,11 @@
       <c r="I24" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>9</v>
       </c>
@@ -1426,8 +1567,11 @@
       <c r="I25" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
@@ -1455,8 +1599,11 @@
       <c r="I26" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
@@ -1484,8 +1631,11 @@
       <c r="I27" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
@@ -1513,8 +1663,11 @@
       <c r="I28" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -1542,8 +1695,11 @@
       <c r="I29" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -1571,10 +1727,13 @@
       <c r="I30" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>15</v>
+      <c r="J30" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>124</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>57</v>
@@ -1600,10 +1759,13 @@
       <c r="I31" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>16</v>
+      <c r="J31" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>125</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -1629,97 +1791,109 @@
       <c r="I32" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="C35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>50</v>
@@ -1745,68 +1919,77 @@
       <c r="I36" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>59</v>
@@ -1832,10 +2015,13 @@
       <c r="I39" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>59</v>
@@ -1861,10 +2047,13 @@
       <c r="I40" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>59</v>
@@ -1890,10 +2079,13 @@
       <c r="I41" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>59</v>
@@ -1919,10 +2111,13 @@
       <c r="I42" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>59</v>
@@ -1948,10 +2143,13 @@
       <c r="I43" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>59</v>
@@ -1977,10 +2175,13 @@
       <c r="I44" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>59</v>
@@ -2006,10 +2207,13 @@
       <c r="I45" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>59</v>
@@ -2035,10 +2239,13 @@
       <c r="I46" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>59</v>
@@ -2064,10 +2271,13 @@
       <c r="I47" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>59</v>
@@ -2093,68 +2303,77 @@
       <c r="I48" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>60</v>
@@ -2180,10 +2399,13 @@
       <c r="I51" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>60</v>
@@ -2209,10 +2431,13 @@
       <c r="I52" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>60</v>
@@ -2238,10 +2463,13 @@
       <c r="I53" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>60</v>
@@ -2267,10 +2495,13 @@
       <c r="I54" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>60</v>
@@ -2296,10 +2527,13 @@
       <c r="I55" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>60</v>
@@ -2325,1629 +2559,2472 @@
       <c r="I56" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>117</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>118</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>119</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>120</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>121</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>127</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="C78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="C79" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="C80" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="C81" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="C82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="C83" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="C84" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="C85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="C86" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="C87" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="C88" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="C89" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="C90" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="C91" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="C92" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="C93" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B94" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="C94" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B95" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="C95" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B96" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="C96" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B97" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="C97" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="C98" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B99" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="C99" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="C100" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="C101" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="C102" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>113</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="C103" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>114</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B104" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="C104" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>115</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B105" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="C105" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>413</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="C106" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>414</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="C107" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>415</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="C108" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <v>416</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B109" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="C109" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <v>417</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="C110" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>418</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="C111" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B112" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="C112" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B113" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="C113" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B114" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="C114" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B115" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+      <c r="C115" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <v>6</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B116" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="C116" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <v>100</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="C117" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <v>101</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="C118" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <v>104</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B119" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="C119" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>107</v>
-      </c>
-      <c r="B100" s="4" t="s">
+      <c r="C120" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>107</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+      <c r="C121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <v>106</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>108</v>
-      </c>
-      <c r="B102" s="4" t="s">
+      <c r="C122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>108</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+      <c r="C123" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <v>109</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B124" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="C124" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B125" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="C125" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B126" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="C126" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B127" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="C127" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B128" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="C128" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B129" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="C129" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B130" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="C130" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B131" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="C131" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B132" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="C132" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B133" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>108</v>
+      <c r="C133" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
